--- a/Timetables/Timetable Paul.xlsx
+++ b/Timetables/Timetable Paul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\GitHub\Biodex-Data-Management-System\Timetables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57C18CA-774C-4C74-A085-A17390228012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA726C-CAE0-4734-A00D-8B31FF9EFD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{A730D8CD-244E-400F-8D0D-5BD51D145E37}"/>
+    <workbookView xWindow="2925" yWindow="9675" windowWidth="21600" windowHeight="11385" xr2:uid="{A730D8CD-244E-400F-8D0D-5BD51D145E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -42,10 +42,16 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>14.00-18.00</t>
-  </si>
-  <si>
     <t>SQL Recherche</t>
+  </si>
+  <si>
+    <t>14:00-18:00</t>
+  </si>
+  <si>
+    <t>21:00-21:45</t>
+  </si>
+  <si>
+    <t>Adding naming conventions to group paper, editing Wiki</t>
   </si>
 </sst>
 </file>
@@ -404,10 +410,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -425,14 +434,22 @@
         <v>43927</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>

--- a/Timetables/Timetable Paul.xlsx
+++ b/Timetables/Timetable Paul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Documents\GitHub\Biodex-Data-Management-System\Timetables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA726C-CAE0-4734-A00D-8B31FF9EFD38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD0D524-043E-4379-9349-405377A3A355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="9675" windowWidth="21600" windowHeight="11385" xr2:uid="{A730D8CD-244E-400F-8D0D-5BD51D145E37}"/>
+    <workbookView xWindow="7200" yWindow="30" windowWidth="21600" windowHeight="11385" xr2:uid="{A730D8CD-244E-400F-8D0D-5BD51D145E37}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Adding naming conventions to group paper, editing Wiki</t>
+  </si>
+  <si>
+    <t>20.00-22.00</t>
+  </si>
+  <si>
+    <t>Git workflow, Introduction</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
